--- a/LR3/table_2_37.xlsx
+++ b/LR3/table_2_37.xlsx
@@ -1,24 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\IT\IT_LR\LR3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CE03BF5-4750-4037-AE26-358C37E1C5C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{037845F7-9E9E-4B03-A55D-5A4AE0500103}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10194" yWindow="1469" windowWidth="12746" windowHeight="6929" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="15945" yWindow="1425" windowWidth="28800" windowHeight="17235" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Лист1" sheetId="2" r:id="rId2"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId3"/>
-  </externalReferences>
   <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -73,9 +70,6 @@
     <t>Дата конца2</t>
   </si>
   <si>
-    <t>Столбец6</t>
-  </si>
-  <si>
     <t>Дата начала3</t>
   </si>
   <si>
@@ -85,9 +79,6 @@
     <t>Дата конца3</t>
   </si>
   <si>
-    <t>Столбец10</t>
-  </si>
-  <si>
     <t>Дата начала4</t>
   </si>
   <si>
@@ -134,6 +125,12 @@
   </si>
   <si>
     <t>Нераб. дни 2022</t>
+  </si>
+  <si>
+    <t>Столбец3</t>
+  </si>
+  <si>
+    <t>Столбец4</t>
   </si>
 </sst>
 </file>
@@ -144,7 +141,7 @@
     <numFmt numFmtId="164" formatCode="dd/mm/yyyy"/>
     <numFmt numFmtId="165" formatCode="0_ ;[Red]\-0\ "/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -172,6 +169,12 @@
       <family val="1"/>
       <charset val="204"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -187,7 +190,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -286,11 +289,24 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="double">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -358,11 +374,30 @@
     </xf>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="27">
+  <dxfs count="29">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -372,54 +407,6 @@
           <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <name val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <name val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-        <scheme val="none"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
     </dxf>
     <dxf>
       <font>
@@ -751,6 +738,74 @@
         </bottom>
       </border>
     </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+        <scheme val="none"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -809,45 +864,55 @@
           <c:dLbls>
             <c:delete val="1"/>
           </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>#REF!</c:f>
-            </c:strRef>
-          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$D$4:$D$11</c:f>
+              <c:f>Sheet1!$D$4:$D$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>10</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="3">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+              <c15:filteredCategoryTitle>
+                <c15:cat>
+                  <c:multiLvlStrRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>#REF!</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                  </c:multiLvlStrRef>
+                </c15:cat>
+              </c15:filteredCategoryTitle>
+            </c:ext>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-8067-433D-BB5E-C6309389FB74}"/>
             </c:ext>
@@ -895,45 +960,55 @@
               </c:ext>
             </c:extLst>
           </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>#REF!</c:f>
-            </c:strRef>
-          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$F$4:$F$11</c:f>
+              <c:f>Sheet1!$F$4:$F$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+              <c15:filteredCategoryTitle>
+                <c15:cat>
+                  <c:multiLvlStrRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>#REF!</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                  </c:multiLvlStrRef>
+                </c15:cat>
+              </c15:filteredCategoryTitle>
+            </c:ext>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-8067-433D-BB5E-C6309389FB74}"/>
             </c:ext>
@@ -963,45 +1038,55 @@
           <c:dLbls>
             <c:delete val="1"/>
           </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>#REF!</c:f>
-            </c:strRef>
-          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$H$4:$H$11</c:f>
+              <c:f>Sheet1!$H$4:$H$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>30</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>38</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>37</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>29</c:v>
-                </c:pt>
                 <c:pt idx="4">
-                  <c:v>27</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>37</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>20</c:v>
+                  <c:v>41</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>51</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+              <c15:filteredCategoryTitle>
+                <c15:cat>
+                  <c:multiLvlStrRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>#REF!</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                  </c:multiLvlStrRef>
+                </c15:cat>
+              </c15:filteredCategoryTitle>
+            </c:ext>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-8067-433D-BB5E-C6309389FB74}"/>
             </c:ext>
@@ -1044,37 +1129,32 @@
               </c:ext>
             </c:extLst>
           </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>#REF!</c:f>
-            </c:strRef>
-          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$J$4:$J$11</c:f>
+              <c:f>Sheet1!$J$4:$J$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>10</c:v>
@@ -1083,6 +1163,21 @@
             </c:numRef>
           </c:val>
           <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+              <c15:filteredCategoryTitle>
+                <c15:cat>
+                  <c:multiLvlStrRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>#REF!</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                  </c:multiLvlStrRef>
+                </c15:cat>
+              </c15:filteredCategoryTitle>
+            </c:ext>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-8067-433D-BB5E-C6309389FB74}"/>
             </c:ext>
@@ -1097,7 +1192,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Столбец6</c:v>
+                  <c:v>Столбец3</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1112,45 +1207,55 @@
           <c:dLbls>
             <c:delete val="1"/>
           </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>#REF!</c:f>
-            </c:strRef>
-          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$L$4:$L$11</c:f>
+              <c:f>Sheet1!$L$4:$L$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>72</c:v>
+                  <c:v>87</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>87</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>76</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>74</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>63</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>62</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>88</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>61</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+              <c15:filteredCategoryTitle>
+                <c15:cat>
+                  <c:multiLvlStrRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>#REF!</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                  </c:multiLvlStrRef>
+                </c15:cat>
+              </c15:filteredCategoryTitle>
+            </c:ext>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000004-8067-433D-BB5E-C6309389FB74}"/>
             </c:ext>
@@ -1193,45 +1298,55 @@
               </c:ext>
             </c:extLst>
           </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>#REF!</c:f>
-            </c:strRef>
-          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$N$4:$N$11</c:f>
+              <c:f>Sheet1!$N$4:$N$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>2</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>14</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>14</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+              <c15:filteredCategoryTitle>
+                <c15:cat>
+                  <c:multiLvlStrRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>#REF!</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                  </c:multiLvlStrRef>
+                </c15:cat>
+              </c15:filteredCategoryTitle>
+            </c:ext>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000005-8067-433D-BB5E-C6309389FB74}"/>
             </c:ext>
@@ -1246,7 +1361,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Столбец10</c:v>
+                  <c:v>Столбец4</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1261,45 +1376,55 @@
           <c:dLbls>
             <c:delete val="1"/>
           </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>#REF!</c:f>
-            </c:strRef>
-          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$P$4:$P$11</c:f>
+              <c:f>Sheet1!$P$4:$P$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>176</c:v>
+                  <c:v>156</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>156</c:v>
+                  <c:v>170</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>170</c:v>
+                  <c:v>178</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>178</c:v>
+                  <c:v>186</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>186</c:v>
+                  <c:v>184</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>182</c:v>
+                  <c:v>183</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>179</c:v>
+                  <c:v>183</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>173</c:v>
+                  <c:v>159</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+              <c15:filteredCategoryTitle>
+                <c15:cat>
+                  <c:multiLvlStrRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>#REF!</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                  </c:multiLvlStrRef>
+                </c15:cat>
+              </c15:filteredCategoryTitle>
+            </c:ext>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000006-8067-433D-BB5E-C6309389FB74}"/>
             </c:ext>
@@ -1342,28 +1467,23 @@
               </c:ext>
             </c:extLst>
           </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>#REF!</c:f>
-            </c:strRef>
-          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$R$4:$R$11</c:f>
+              <c:f>Sheet1!$R$4:$R$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>6</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>7</c:v>
-                </c:pt>
                 <c:pt idx="3">
-                  <c:v>6</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>5</c:v>
@@ -1372,15 +1492,30 @@
                   <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+              <c15:filteredCategoryTitle>
+                <c15:cat>
+                  <c:multiLvlStrRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>#REF!</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                  </c:multiLvlStrRef>
+                </c15:cat>
+              </c15:filteredCategoryTitle>
+            </c:ext>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000007-8067-433D-BB5E-C6309389FB74}"/>
             </c:ext>
@@ -1441,7 +1576,7 @@
                 <a:latin typeface="Calibri"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="ru-RU"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="55704167"/>
@@ -1503,7 +1638,7 @@
                 <a:latin typeface="Calibri"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="ru-RU"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="10126892"/>
@@ -1547,14 +1682,14 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>74558</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>26</xdr:col>
       <xdr:colOff>102174</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>121103</xdr:rowOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>121104</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1584,52 +1719,39 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Лист1"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{86D6A4AD-46F7-4A93-A0A1-24CBA8FA4E96}" name="Таблица1" displayName="Таблица1" ref="A3:V11" totalsRowShown="0" headerRowDxfId="3" dataDxfId="2" headerRowBorderDxfId="26">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{86D6A4AD-46F7-4A93-A0A1-24CBA8FA4E96}" name="Таблица1" displayName="Таблица1" ref="A3:V11" totalsRowShown="0" headerRowDxfId="25" dataDxfId="24" headerRowBorderDxfId="23">
   <tableColumns count="22">
-    <tableColumn id="1" xr3:uid="{9B5051D0-E7BB-44D1-94CB-C717F8DFF59C}" name="Сотрудник" dataDxfId="25"/>
-    <tableColumn id="2" xr3:uid="{A6A4A7ED-5AEE-4AB5-A737-AEF133805DDC}" name="Должность" dataDxfId="24"/>
-    <tableColumn id="3" xr3:uid="{59140F3C-3877-41D4-B6F3-346FB265161B}" name="Начало года" dataDxfId="23"/>
-    <tableColumn id="4" xr3:uid="{347A20BE-9F36-4C98-847A-D59ED574ACCF}" name="Столбец1" dataDxfId="22">
+    <tableColumn id="1" xr3:uid="{9B5051D0-E7BB-44D1-94CB-C717F8DFF59C}" name="Сотрудник" dataDxfId="22"/>
+    <tableColumn id="2" xr3:uid="{A6A4A7ED-5AEE-4AB5-A737-AEF133805DDC}" name="Должность" dataDxfId="21"/>
+    <tableColumn id="3" xr3:uid="{59140F3C-3877-41D4-B6F3-346FB265161B}" name="Начало года" dataDxfId="20"/>
+    <tableColumn id="4" xr3:uid="{347A20BE-9F36-4C98-847A-D59ED574ACCF}" name="Столбец1" dataDxfId="19">
       <calculatedColumnFormula>IF(MONTH(E4)&gt;2,E4-C4+2,E4-C4+1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{E2CF6205-9897-4CB0-B54D-2D86AA67B539}" name="Дата начала1" dataDxfId="21"/>
-    <tableColumn id="6" xr3:uid="{F680F03D-0A74-4B4B-A424-BF84ECF6B3C5}" name="Продолжительность1, дней" dataDxfId="20"/>
-    <tableColumn id="7" xr3:uid="{99F7D308-79DD-436E-828A-0F9E1C135404}" name="Дата конца1" dataDxfId="19"/>
-    <tableColumn id="8" xr3:uid="{F2B34521-19B9-4492-99D8-D259E8AD64DD}" name="Столбец2" dataDxfId="18"/>
-    <tableColumn id="9" xr3:uid="{C74DF26D-22AF-4BD5-8EF4-97D04BCA153A}" name="Дата начала2" dataDxfId="17"/>
-    <tableColumn id="10" xr3:uid="{474686EA-9DAD-43F8-A9E8-0839D8D0FF60}" name="Продолжительность2, дней" dataDxfId="16"/>
-    <tableColumn id="11" xr3:uid="{45AEAAA6-08C0-47DD-868A-57D4E23B4212}" name="Дата конца2" dataDxfId="15"/>
-    <tableColumn id="12" xr3:uid="{8B2CA566-A1C4-4A9B-894E-EE798EBA722C}" name="Столбец6" dataDxfId="14">
+    <tableColumn id="5" xr3:uid="{E2CF6205-9897-4CB0-B54D-2D86AA67B539}" name="Дата начала1" dataDxfId="18"/>
+    <tableColumn id="6" xr3:uid="{F680F03D-0A74-4B4B-A424-BF84ECF6B3C5}" name="Продолжительность1, дней" dataDxfId="17"/>
+    <tableColumn id="7" xr3:uid="{99F7D308-79DD-436E-828A-0F9E1C135404}" name="Дата конца1" dataDxfId="16"/>
+    <tableColumn id="8" xr3:uid="{F2B34521-19B9-4492-99D8-D259E8AD64DD}" name="Столбец2" dataDxfId="15"/>
+    <tableColumn id="9" xr3:uid="{C74DF26D-22AF-4BD5-8EF4-97D04BCA153A}" name="Дата начала2" dataDxfId="14"/>
+    <tableColumn id="10" xr3:uid="{474686EA-9DAD-43F8-A9E8-0839D8D0FF60}" name="Продолжительность2, дней" dataDxfId="13"/>
+    <tableColumn id="11" xr3:uid="{45AEAAA6-08C0-47DD-868A-57D4E23B4212}" name="Дата конца2" dataDxfId="12"/>
+    <tableColumn id="12" xr3:uid="{8B2CA566-A1C4-4A9B-894E-EE798EBA722C}" name="Столбец3" dataDxfId="11">
       <calculatedColumnFormula>IF(AND(M4-$C4&gt;0,Таблица1[[#This Row],[Продолжительность1, дней]]&gt;0,Таблица1[[#This Row],[Продолжительность2, дней]]&gt;0),M4-$C4-$D4-(Таблица1[[#This Row],[Дата конца1]]-Таблица1[[#This Row],[Дата начала1]])-$H4-(Таблица1[[#This Row],[Дата конца2]]-Таблица1[[#This Row],[Дата начала2]])-1,"")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" xr3:uid="{E92D8682-9A14-4E9C-9793-F446456CE91A}" name="Дата начала3" dataDxfId="13"/>
-    <tableColumn id="14" xr3:uid="{46D9F654-D706-419A-A245-967D9500D752}" name="Продолжительность3, дней" dataDxfId="12"/>
-    <tableColumn id="15" xr3:uid="{62EEDEB7-48B7-47C4-A4AD-C0F204474DCB}" name="Дата конца3" dataDxfId="11"/>
-    <tableColumn id="16" xr3:uid="{D9B007A0-87B0-473F-AE7C-8BA05B9810BD}" name="Столбец10" dataDxfId="10">
+    <tableColumn id="13" xr3:uid="{E92D8682-9A14-4E9C-9793-F446456CE91A}" name="Дата начала3" dataDxfId="10"/>
+    <tableColumn id="14" xr3:uid="{46D9F654-D706-419A-A245-967D9500D752}" name="Продолжительность3, дней" dataDxfId="9"/>
+    <tableColumn id="15" xr3:uid="{62EEDEB7-48B7-47C4-A4AD-C0F204474DCB}" name="Дата конца3" dataDxfId="8"/>
+    <tableColumn id="16" xr3:uid="{D9B007A0-87B0-473F-AE7C-8BA05B9810BD}" name="Столбец4" dataDxfId="7">
       <calculatedColumnFormula>IF(AND(Q4-$C4&gt;0,Таблица1[[#This Row],[Продолжительность1, дней]]&gt;0,Таблица1[[#This Row],[Продолжительность2, дней]]&gt;0,Таблица1[[#This Row],[Продолжительность3, дней]]&gt;0),Q4-$C4-$D4-(Таблица1[[#This Row],[Дата конца1]]-Таблица1[[#This Row],[Дата начала1]])-$H4-(Таблица1[[#This Row],[Дата конца2]]-Таблица1[[#This Row],[Дата начала2]])-L4-(Таблица1[[#This Row],[Дата конца3]]-Таблица1[[#This Row],[Дата начала3]])-2,"")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="17" xr3:uid="{9E9A3746-3D03-4860-A084-9F5528C15666}" name="Дата начала4" dataDxfId="9"/>
-    <tableColumn id="18" xr3:uid="{AE95F8F4-C887-440E-917A-B0EA4D88BD2D}" name="Продолжительность4, дней" dataDxfId="8"/>
-    <tableColumn id="19" xr3:uid="{550F26DD-F2D0-42C5-9B37-7278DCD10D31}" name="Дата конца4" dataDxfId="7"/>
-    <tableColumn id="20" xr3:uid="{DDECD48F-F316-4D40-9F1D-DE383AB41F7A}" name="Положено за год" dataDxfId="6"/>
-    <tableColumn id="21" xr3:uid="{F946A4E5-FF29-44A8-B732-4B1F6FC64C62}" name="Израсхо- довано" dataDxfId="5">
+    <tableColumn id="17" xr3:uid="{9E9A3746-3D03-4860-A084-9F5528C15666}" name="Дата начала4" dataDxfId="6"/>
+    <tableColumn id="18" xr3:uid="{AE95F8F4-C887-440E-917A-B0EA4D88BD2D}" name="Продолжительность4, дней" dataDxfId="5"/>
+    <tableColumn id="19" xr3:uid="{550F26DD-F2D0-42C5-9B37-7278DCD10D31}" name="Дата конца4" dataDxfId="4"/>
+    <tableColumn id="20" xr3:uid="{DDECD48F-F316-4D40-9F1D-DE383AB41F7A}" name="Положено за год" dataDxfId="3"/>
+    <tableColumn id="21" xr3:uid="{F946A4E5-FF29-44A8-B732-4B1F6FC64C62}" name="Израсхо- довано" dataDxfId="2">
       <calculatedColumnFormula>F4+J4+N4+R4</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="22" xr3:uid="{BB9F6B72-7839-42E0-A845-0C8F256255B2}" name="Оста- лось" dataDxfId="4">
+    <tableColumn id="22" xr3:uid="{BB9F6B72-7839-42E0-A845-0C8F256255B2}" name="Оста- лось" dataDxfId="1">
       <calculatedColumnFormula>T4-U4</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1902,24 +2024,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.7" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.85546875" style="23" customWidth="1"/>
     <col min="2" max="2" width="12.5703125" style="23" customWidth="1"/>
     <col min="3" max="3" width="13.42578125" style="23" customWidth="1"/>
-    <col min="4" max="4" width="11.42578125" style="23" customWidth="1"/>
+    <col min="4" max="4" width="11" style="23" customWidth="1"/>
     <col min="5" max="5" width="13.85546875" style="23" customWidth="1"/>
     <col min="6" max="6" width="9.140625" style="23"/>
     <col min="7" max="7" width="16" style="23" customWidth="1"/>
-    <col min="8" max="8" width="12" style="23" customWidth="1"/>
+    <col min="8" max="8" width="10.85546875" style="23" customWidth="1"/>
     <col min="9" max="9" width="14.140625" style="23" customWidth="1"/>
     <col min="10" max="10" width="9.140625" style="23"/>
     <col min="11" max="11" width="14.85546875" style="23" customWidth="1"/>
-    <col min="12" max="12" width="9.140625" style="23"/>
+    <col min="12" max="12" width="10.85546875" style="23" customWidth="1"/>
     <col min="13" max="13" width="14.42578125" style="23" customWidth="1"/>
     <col min="14" max="14" width="9.140625" style="23"/>
     <col min="15" max="15" width="13.7109375" style="23" customWidth="1"/>
@@ -1935,10 +2057,10 @@
         <v>44562</v>
       </c>
       <c r="B1" s="23" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:22" ht="78.45" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:22" ht="63" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>0</v>
       </c>
@@ -1973,211 +2095,211 @@
         <v>10</v>
       </c>
       <c r="L3" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="M3" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="M3" s="20" t="s">
+      <c r="N3" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="N3" s="20" t="s">
+      <c r="O3" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="O3" s="20" t="s">
+      <c r="P3" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q3" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="P3" s="19" t="s">
+      <c r="R3" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="Q3" s="20" t="s">
+      <c r="S3" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="R3" s="20" t="s">
+      <c r="T3" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="S3" s="20" t="s">
+      <c r="U3" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="T3" s="21" t="s">
+      <c r="V3" s="21" t="s">
         <v>19</v>
-      </c>
-      <c r="U3" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="V3" s="21" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B4" s="3"/>
       <c r="C4" s="4">
-        <f>$A$1</f>
+        <f t="shared" ref="C4:C12" si="0">$A$1</f>
         <v>44562</v>
       </c>
       <c r="D4" s="5">
-        <f t="shared" ref="D4:D11" si="0">IF(MONTH(E4)&gt;2,E4-C4+2,E4-C4+1)</f>
-        <v>10</v>
+        <f t="shared" ref="D4:D10" si="1">IF(MONTH(E4)&gt;2,E4-C4+2,E4-C4+1)</f>
+        <v>8</v>
       </c>
       <c r="E4" s="6">
-        <v>44571</v>
+        <v>44569</v>
       </c>
       <c r="F4" s="7">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="G4" s="8">
         <f>Таблица1[[#This Row],[Дата начала1]]+Таблица1[[#This Row],[Продолжительность1, дней]]-1</f>
-        <v>44580</v>
+        <v>44570</v>
       </c>
       <c r="H4" s="9">
         <f>IF(AND(I4-$C4&gt;0,Таблица1[[#This Row],[Продолжительность1, дней]]&gt;0),I4-$C4-D4-(Таблица1[[#This Row],[Дата конца1]]-Таблица1[[#This Row],[Дата начала1]]),"")</f>
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="I4" s="6">
-        <v>44611</v>
+        <v>44606</v>
       </c>
       <c r="J4" s="7">
         <v>10</v>
       </c>
       <c r="K4" s="8">
         <f>Таблица1[[#This Row],[Дата начала2]]+Таблица1[[#This Row],[Продолжительность2, дней]]-1</f>
-        <v>44620</v>
+        <v>44615</v>
       </c>
       <c r="L4" s="9">
         <f>IF(AND(M4-$C4&gt;0,Таблица1[[#This Row],[Продолжительность1, дней]]&gt;0,Таблица1[[#This Row],[Продолжительность2, дней]]&gt;0),M4-$C4-$D4-(Таблица1[[#This Row],[Дата конца1]]-Таблица1[[#This Row],[Дата начала1]])-$H4-(Таблица1[[#This Row],[Дата конца2]]-Таблица1[[#This Row],[Дата начала2]])-1,"")</f>
-        <v>72</v>
+        <v>87</v>
       </c>
       <c r="M4" s="6">
-        <v>44693</v>
+        <v>44703</v>
       </c>
       <c r="N4" s="7">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="O4" s="8">
         <f>Таблица1[[#This Row],[Дата начала3]]+Таблица1[[#This Row],[Продолжительность3, дней]]-1</f>
-        <v>44694</v>
+        <v>44709</v>
       </c>
       <c r="P4" s="9">
         <f>IF(AND(Q4-$C4&gt;0,Таблица1[[#This Row],[Продолжительность1, дней]]&gt;0,Таблица1[[#This Row],[Продолжительность2, дней]]&gt;0,Таблица1[[#This Row],[Продолжительность3, дней]]&gt;0),Q4-$C4-$D4-(Таблица1[[#This Row],[Дата конца1]]-Таблица1[[#This Row],[Дата начала1]])-$H4-(Таблица1[[#This Row],[Дата конца2]]-Таблица1[[#This Row],[Дата начала2]])-L4-(Таблица1[[#This Row],[Дата конца3]]-Таблица1[[#This Row],[Дата начала3]])-2,"")</f>
-        <v>176</v>
+        <v>156</v>
       </c>
       <c r="Q4" s="6">
-        <v>44871</v>
+        <v>44866</v>
       </c>
       <c r="R4" s="7">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="S4" s="10">
-        <f>Q4+R4-1</f>
-        <v>44876</v>
+        <f t="shared" ref="S4:S10" si="2">Q4+R4-1</f>
+        <v>44873</v>
       </c>
       <c r="T4" s="11">
         <v>28</v>
       </c>
       <c r="U4" s="12">
-        <f t="shared" ref="U4:U11" si="1">F4+J4+N4+R4</f>
-        <v>28</v>
+        <f t="shared" ref="U4:U10" si="3">F4+J4+N4+R4</f>
+        <v>27</v>
       </c>
       <c r="V4" s="13">
-        <f t="shared" ref="V4:V11" si="2">T4-U4</f>
-        <v>0</v>
+        <f t="shared" ref="V4:V10" si="4">T4-U4</f>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B5" s="3"/>
       <c r="C5" s="4">
-        <f t="shared" ref="C5:C11" si="3">$A$1</f>
+        <f t="shared" si="0"/>
         <v>44562</v>
       </c>
       <c r="D5" s="5">
-        <f t="shared" si="0"/>
-        <v>4</v>
+        <f t="shared" si="1"/>
+        <v>8</v>
       </c>
       <c r="E5" s="6">
-        <v>44565</v>
+        <v>44569</v>
       </c>
       <c r="F5" s="7">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G5" s="8">
         <f>Таблица1[[#This Row],[Дата начала1]]+Таблица1[[#This Row],[Продолжительность1, дней]]-1</f>
-        <v>44567</v>
+        <v>44575</v>
       </c>
       <c r="H5" s="9">
         <f>IF(AND(I5-$C5&gt;0,Таблица1[[#This Row],[Продолжительность1, дней]]&gt;0),I5-$C5-D5-(Таблица1[[#This Row],[Дата конца1]]-Таблица1[[#This Row],[Дата начала1]]),"")</f>
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I5" s="6">
-        <v>44606</v>
+        <v>44613</v>
       </c>
       <c r="J5" s="7">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="K5" s="8">
         <f>Таблица1[[#This Row],[Дата начала2]]+Таблица1[[#This Row],[Продолжительность2, дней]]-1</f>
-        <v>44615</v>
+        <v>44619</v>
       </c>
       <c r="L5" s="9">
         <f>IF(AND(M5-$C5&gt;0,Таблица1[[#This Row],[Продолжительность1, дней]]&gt;0,Таблица1[[#This Row],[Продолжительность2, дней]]&gt;0),M5-$C5-$D5-(Таблица1[[#This Row],[Дата конца1]]-Таблица1[[#This Row],[Дата начала1]])-$H5-(Таблица1[[#This Row],[Дата конца2]]-Таблица1[[#This Row],[Дата начала2]])-1,"")</f>
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="M5" s="6">
-        <v>44703</v>
+        <v>44696</v>
       </c>
       <c r="N5" s="7">
         <v>7</v>
       </c>
       <c r="O5" s="8">
         <f>Таблица1[[#This Row],[Дата начала3]]+Таблица1[[#This Row],[Продолжительность3, дней]]-1</f>
-        <v>44709</v>
+        <v>44702</v>
       </c>
       <c r="P5" s="9">
         <f>IF(AND(Q5-$C5&gt;0,Таблица1[[#This Row],[Продолжительность1, дней]]&gt;0,Таблица1[[#This Row],[Продолжительность2, дней]]&gt;0,Таблица1[[#This Row],[Продолжительность3, дней]]&gt;0),Q5-$C5-$D5-(Таблица1[[#This Row],[Дата конца1]]-Таблица1[[#This Row],[Дата начала1]])-$H5-(Таблица1[[#This Row],[Дата конца2]]-Таблица1[[#This Row],[Дата начала2]])-L5-(Таблица1[[#This Row],[Дата конца3]]-Таблица1[[#This Row],[Дата начала3]])-2,"")</f>
-        <v>156</v>
+        <v>170</v>
       </c>
       <c r="Q5" s="6">
-        <v>44866</v>
+        <v>44873</v>
       </c>
       <c r="R5" s="7">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="S5" s="10">
-        <f t="shared" ref="S5:S11" si="4">Q5+R5-1</f>
-        <v>44873</v>
+        <f t="shared" si="2"/>
+        <v>44879</v>
       </c>
       <c r="T5" s="11">
         <v>28</v>
       </c>
       <c r="U5" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>28</v>
       </c>
       <c r="V5" s="13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B6" s="3"/>
       <c r="C6" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>44562</v>
       </c>
       <c r="D6" s="5">
-        <f t="shared" si="0"/>
-        <v>8</v>
+        <f t="shared" si="1"/>
+        <v>10</v>
       </c>
       <c r="E6" s="6">
-        <v>44569</v>
+        <v>44571</v>
       </c>
       <c r="F6" s="7">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G6" s="8">
         <f>Таблица1[[#This Row],[Дата начала1]]+Таблица1[[#This Row],[Продолжительность1, дней]]-1</f>
@@ -2185,258 +2307,258 @@
       </c>
       <c r="H6" s="9">
         <f>IF(AND(I6-$C6&gt;0,Таблица1[[#This Row],[Продолжительность1, дней]]&gt;0),I6-$C6-D6-(Таблица1[[#This Row],[Дата конца1]]-Таблица1[[#This Row],[Дата начала1]]),"")</f>
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="I6" s="6">
-        <v>44613</v>
+        <v>44614</v>
       </c>
       <c r="J6" s="7">
         <v>7</v>
       </c>
       <c r="K6" s="8">
         <f>Таблица1[[#This Row],[Дата начала2]]+Таблица1[[#This Row],[Продолжительность2, дней]]-1</f>
-        <v>44619</v>
+        <v>44620</v>
       </c>
       <c r="L6" s="9">
         <f>IF(AND(M6-$C6&gt;0,Таблица1[[#This Row],[Продолжительность1, дней]]&gt;0,Таблица1[[#This Row],[Продолжительность2, дней]]&gt;0),M6-$C6-$D6-(Таблица1[[#This Row],[Дата конца1]]-Таблица1[[#This Row],[Дата начала1]])-$H6-(Таблица1[[#This Row],[Дата конца2]]-Таблица1[[#This Row],[Дата начала2]])-1,"")</f>
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="M6" s="6">
-        <v>44696</v>
+        <v>44695</v>
       </c>
       <c r="N6" s="7">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="O6" s="8">
         <f>Таблица1[[#This Row],[Дата начала3]]+Таблица1[[#This Row],[Продолжительность3, дней]]-1</f>
-        <v>44702</v>
+        <v>44695</v>
       </c>
       <c r="P6" s="9">
         <f>IF(AND(Q6-$C6&gt;0,Таблица1[[#This Row],[Продолжительность1, дней]]&gt;0,Таблица1[[#This Row],[Продолжительность2, дней]]&gt;0,Таблица1[[#This Row],[Продолжительность3, дней]]&gt;0),Q6-$C6-$D6-(Таблица1[[#This Row],[Дата конца1]]-Таблица1[[#This Row],[Дата начала1]])-$H6-(Таблица1[[#This Row],[Дата конца2]]-Таблица1[[#This Row],[Дата начала2]])-L6-(Таблица1[[#This Row],[Дата конца3]]-Таблица1[[#This Row],[Дата начала3]])-2,"")</f>
-        <v>170</v>
+        <v>178</v>
       </c>
       <c r="Q6" s="6">
-        <v>44873</v>
+        <v>44874</v>
       </c>
       <c r="R6" s="7">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="S6" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>44879</v>
       </c>
       <c r="T6" s="11">
         <v>28</v>
       </c>
       <c r="U6" s="12">
-        <f t="shared" si="1"/>
-        <v>28</v>
+        <f t="shared" si="3"/>
+        <v>19</v>
       </c>
       <c r="V6" s="13">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B7" s="3"/>
       <c r="C7" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>44562</v>
       </c>
       <c r="D7" s="5">
-        <f t="shared" si="0"/>
-        <v>10</v>
+        <f t="shared" si="1"/>
+        <v>15</v>
       </c>
       <c r="E7" s="6">
-        <v>44571</v>
+        <v>44576</v>
       </c>
       <c r="F7" s="7">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="G7" s="8">
         <f>Таблица1[[#This Row],[Дата начала1]]+Таблица1[[#This Row],[Продолжительность1, дней]]-1</f>
-        <v>44584</v>
+        <v>44582</v>
       </c>
       <c r="H7" s="9">
         <f>IF(AND(I7-$C7&gt;0,Таблица1[[#This Row],[Продолжительность1, дней]]&gt;0),I7-$C7-D7-(Таблица1[[#This Row],[Дата конца1]]-Таблица1[[#This Row],[Дата начала1]]),"")</f>
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I7" s="6">
-        <v>44614</v>
+        <v>44613</v>
       </c>
       <c r="J7" s="7">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="K7" s="8">
         <f>Таблица1[[#This Row],[Дата начала2]]+Таблица1[[#This Row],[Продолжительность2, дней]]-1</f>
-        <v>44620</v>
+        <v>44622</v>
       </c>
       <c r="L7" s="9">
         <f>IF(AND(M7-$C7&gt;0,Таблица1[[#This Row],[Продолжительность1, дней]]&gt;0,Таблица1[[#This Row],[Продолжительность2, дней]]&gt;0),M7-$C7-$D7-(Таблица1[[#This Row],[Дата конца1]]-Таблица1[[#This Row],[Дата начала1]])-$H7-(Таблица1[[#This Row],[Дата конца2]]-Таблица1[[#This Row],[Дата начала2]])-1,"")</f>
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="M7" s="6">
-        <v>44695</v>
+        <v>44686</v>
       </c>
       <c r="N7" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O7" s="8">
         <f>Таблица1[[#This Row],[Дата начала3]]+Таблица1[[#This Row],[Продолжительность3, дней]]-1</f>
-        <v>44695</v>
+        <v>44688</v>
       </c>
       <c r="P7" s="9">
         <f>IF(AND(Q7-$C7&gt;0,Таблица1[[#This Row],[Продолжительность1, дней]]&gt;0,Таблица1[[#This Row],[Продолжительность2, дней]]&gt;0,Таблица1[[#This Row],[Продолжительность3, дней]]&gt;0),Q7-$C7-$D7-(Таблица1[[#This Row],[Дата конца1]]-Таблица1[[#This Row],[Дата начала1]])-$H7-(Таблица1[[#This Row],[Дата конца2]]-Таблица1[[#This Row],[Дата начала2]])-L7-(Таблица1[[#This Row],[Дата конца3]]-Таблица1[[#This Row],[Дата начала3]])-2,"")</f>
-        <v>178</v>
+        <v>186</v>
       </c>
       <c r="Q7" s="6">
-        <v>44874</v>
+        <v>44875</v>
       </c>
       <c r="R7" s="7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="S7" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>44879</v>
       </c>
       <c r="T7" s="11">
         <v>28</v>
       </c>
       <c r="U7" s="12">
-        <f t="shared" si="1"/>
-        <v>28</v>
+        <f t="shared" si="3"/>
+        <v>25</v>
       </c>
       <c r="V7" s="13">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B8" s="3"/>
       <c r="C8" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>44562</v>
       </c>
       <c r="D8" s="5">
-        <f t="shared" si="0"/>
-        <v>15</v>
+        <f t="shared" si="1"/>
+        <v>11</v>
       </c>
       <c r="E8" s="6">
-        <v>44576</v>
+        <v>44572</v>
       </c>
       <c r="F8" s="7">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G8" s="8">
         <f>Таблица1[[#This Row],[Дата начала1]]+Таблица1[[#This Row],[Продолжительность1, дней]]-1</f>
-        <v>44585</v>
+        <v>44580</v>
       </c>
       <c r="H8" s="9">
         <f>IF(AND(I8-$C8&gt;0,Таблица1[[#This Row],[Продолжительность1, дней]]&gt;0),I8-$C8-D8-(Таблица1[[#This Row],[Дата конца1]]-Таблица1[[#This Row],[Дата начала1]]),"")</f>
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="I8" s="6">
-        <v>44613</v>
+        <v>44616</v>
       </c>
       <c r="J8" s="7">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K8" s="8">
         <f>Таблица1[[#This Row],[Дата начала2]]+Таблица1[[#This Row],[Продолжительность2, дней]]-1</f>
-        <v>44622</v>
+        <v>44624</v>
       </c>
       <c r="L8" s="9">
         <f>IF(AND(M8-$C8&gt;0,Таблица1[[#This Row],[Продолжительность1, дней]]&gt;0,Таблица1[[#This Row],[Продолжительность2, дней]]&gt;0),M8-$C8-$D8-(Таблица1[[#This Row],[Дата конца1]]-Таблица1[[#This Row],[Дата начала1]])-$H8-(Таблица1[[#This Row],[Дата конца2]]-Таблица1[[#This Row],[Дата начала2]])-1,"")</f>
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="M8" s="6">
-        <v>44686</v>
+        <v>44687</v>
       </c>
       <c r="N8" s="7">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="O8" s="8">
         <f>Таблица1[[#This Row],[Дата начала3]]+Таблица1[[#This Row],[Продолжительность3, дней]]-1</f>
-        <v>44688</v>
+        <v>44691</v>
       </c>
       <c r="P8" s="9">
         <f>IF(AND(Q8-$C8&gt;0,Таблица1[[#This Row],[Продолжительность1, дней]]&gt;0,Таблица1[[#This Row],[Продолжительность2, дней]]&gt;0,Таблица1[[#This Row],[Продолжительность3, дней]]&gt;0),Q8-$C8-$D8-(Таблица1[[#This Row],[Дата конца1]]-Таблица1[[#This Row],[Дата начала1]])-$H8-(Таблица1[[#This Row],[Дата конца2]]-Таблица1[[#This Row],[Дата начала2]])-L8-(Таблица1[[#This Row],[Дата конца3]]-Таблица1[[#This Row],[Дата начала3]])-2,"")</f>
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="Q8" s="6">
-        <v>44875</v>
+        <v>44876</v>
       </c>
       <c r="R8" s="7">
         <v>5</v>
       </c>
       <c r="S8" s="10">
-        <f t="shared" si="4"/>
-        <v>44879</v>
+        <f t="shared" si="2"/>
+        <v>44880</v>
       </c>
       <c r="T8" s="11">
         <v>28</v>
       </c>
       <c r="U8" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>28</v>
       </c>
       <c r="V8" s="13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B9" s="3"/>
       <c r="C9" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>44562</v>
       </c>
       <c r="D9" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="E9" s="6">
+        <v>44567</v>
+      </c>
+      <c r="F9" s="7">
         <v>11</v>
-      </c>
-      <c r="E9" s="6">
-        <v>44572</v>
-      </c>
-      <c r="F9" s="7">
-        <v>7</v>
       </c>
       <c r="G9" s="8">
         <f>Таблица1[[#This Row],[Дата начала1]]+Таблица1[[#This Row],[Продолжительность1, дней]]-1</f>
-        <v>44578</v>
+        <v>44577</v>
       </c>
       <c r="H9" s="9">
         <f>IF(AND(I9-$C9&gt;0,Таблица1[[#This Row],[Продолжительность1, дней]]&gt;0),I9-$C9-D9-(Таблица1[[#This Row],[Дата конца1]]-Таблица1[[#This Row],[Дата начала1]]),"")</f>
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="I9" s="6">
-        <v>44616</v>
+        <v>44594</v>
       </c>
       <c r="J9" s="7">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="K9" s="8">
         <f>Таблица1[[#This Row],[Дата начала2]]+Таблица1[[#This Row],[Продолжительность2, дней]]-1</f>
-        <v>44624</v>
+        <v>44595</v>
       </c>
       <c r="L9" s="9">
         <f>IF(AND(M9-$C9&gt;0,Таблица1[[#This Row],[Продолжительность1, дней]]&gt;0,Таблица1[[#This Row],[Продолжительность2, дней]]&gt;0),M9-$C9-$D9-(Таблица1[[#This Row],[Дата конца1]]-Таблица1[[#This Row],[Дата начала1]])-$H9-(Таблица1[[#This Row],[Дата конца2]]-Таблица1[[#This Row],[Дата начала2]])-1,"")</f>
-        <v>62</v>
+        <v>88</v>
       </c>
       <c r="M9" s="6">
-        <v>44687</v>
+        <v>44684</v>
       </c>
       <c r="N9" s="7">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="O9" s="8">
         <f>Таблица1[[#This Row],[Дата начала3]]+Таблица1[[#This Row],[Продолжительность3, дней]]-1</f>
@@ -2444,187 +2566,193 @@
       </c>
       <c r="P9" s="9">
         <f>IF(AND(Q9-$C9&gt;0,Таблица1[[#This Row],[Продолжительность1, дней]]&gt;0,Таблица1[[#This Row],[Продолжительность2, дней]]&gt;0,Таблица1[[#This Row],[Продолжительность3, дней]]&gt;0),Q9-$C9-$D9-(Таблица1[[#This Row],[Дата конца1]]-Таблица1[[#This Row],[Дата начала1]])-$H9-(Таблица1[[#This Row],[Дата конца2]]-Таблица1[[#This Row],[Дата начала2]])-L9-(Таблица1[[#This Row],[Дата конца3]]-Таблица1[[#This Row],[Дата начала3]])-2,"")</f>
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Q9" s="6">
-        <v>44876</v>
+        <v>44877</v>
       </c>
       <c r="R9" s="7">
         <v>5</v>
       </c>
       <c r="S9" s="10">
-        <f t="shared" si="4"/>
-        <v>44880</v>
+        <f t="shared" si="2"/>
+        <v>44881</v>
       </c>
       <c r="T9" s="11">
         <v>28</v>
       </c>
       <c r="U9" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>28</v>
       </c>
       <c r="V9" s="13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B10" s="3"/>
+        <v>26</v>
+      </c>
+      <c r="B10" s="14"/>
       <c r="C10" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>44562</v>
       </c>
       <c r="D10" s="5">
-        <f t="shared" si="0"/>
-        <v>6</v>
+        <f t="shared" si="1"/>
+        <v>5</v>
       </c>
       <c r="E10" s="6">
-        <v>44567</v>
+        <v>44566</v>
       </c>
       <c r="F10" s="7">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="G10" s="8">
         <f>Таблица1[[#This Row],[Дата начала1]]+Таблица1[[#This Row],[Продолжительность1, дней]]-1</f>
-        <v>44573</v>
+        <v>44578</v>
       </c>
       <c r="H10" s="9">
         <f>IF(AND(I10-$C10&gt;0,Таблица1[[#This Row],[Продолжительность1, дней]]&gt;0),I10-$C10-D10-(Таблица1[[#This Row],[Дата конца1]]-Таблица1[[#This Row],[Дата начала1]]),"")</f>
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="I10" s="6">
-        <v>44594</v>
+        <v>44620</v>
       </c>
       <c r="J10" s="7">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="K10" s="8">
         <f>Таблица1[[#This Row],[Дата начала2]]+Таблица1[[#This Row],[Продолжительность2, дней]]-1</f>
-        <v>44595</v>
+        <v>44629</v>
       </c>
       <c r="L10" s="9">
         <f>IF(AND(M10-$C10&gt;0,Таблица1[[#This Row],[Продолжительность1, дней]]&gt;0,Таблица1[[#This Row],[Продолжительность2, дней]]&gt;0),M10-$C10-$D10-(Таблица1[[#This Row],[Дата конца1]]-Таблица1[[#This Row],[Дата начала1]])-$H10-(Таблица1[[#This Row],[Дата конца2]]-Таблица1[[#This Row],[Дата начала2]])-1,"")</f>
-        <v>88</v>
+        <v>61</v>
       </c>
       <c r="M10" s="6">
-        <v>44684</v>
+        <v>44691</v>
       </c>
       <c r="N10" s="7">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="O10" s="8">
         <f>Таблица1[[#This Row],[Дата начала3]]+Таблица1[[#This Row],[Продолжительность3, дней]]-1</f>
-        <v>44697</v>
+        <v>44694</v>
       </c>
       <c r="P10" s="9">
         <f>IF(AND(Q10-$C10&gt;0,Таблица1[[#This Row],[Продолжительность1, дней]]&gt;0,Таблица1[[#This Row],[Продолжительность2, дней]]&gt;0,Таблица1[[#This Row],[Продолжительность3, дней]]&gt;0),Q10-$C10-$D10-(Таблица1[[#This Row],[Дата конца1]]-Таблица1[[#This Row],[Дата начала1]])-$H10-(Таблица1[[#This Row],[Дата конца2]]-Таблица1[[#This Row],[Дата начала2]])-L10-(Таблица1[[#This Row],[Дата конца3]]-Таблица1[[#This Row],[Дата начала3]])-2,"")</f>
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="Q10" s="6">
-        <v>44877</v>
+        <v>44878</v>
       </c>
       <c r="R10" s="7">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="S10" s="10">
+        <f t="shared" si="2"/>
+        <v>44878</v>
+      </c>
+      <c r="T10" s="15">
+        <v>28</v>
+      </c>
+      <c r="U10" s="16">
+        <f t="shared" si="3"/>
+        <v>28</v>
+      </c>
+      <c r="V10" s="17">
         <f t="shared" si="4"/>
-        <v>44881</v>
-      </c>
-      <c r="T10" s="11">
-        <v>28</v>
-      </c>
-      <c r="U10" s="12">
-        <f t="shared" si="1"/>
-        <v>28</v>
-      </c>
-      <c r="V10" s="13">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B11" s="14"/>
-      <c r="C11" s="4">
-        <f t="shared" si="3"/>
+      <c r="C11" s="24">
+        <f t="shared" si="0"/>
         <v>44562</v>
       </c>
-      <c r="D11" s="5">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="E11" s="6">
-        <v>44566</v>
-      </c>
-      <c r="F11" s="7">
-        <v>3</v>
-      </c>
-      <c r="G11" s="8">
+      <c r="D11" s="25">
+        <f t="shared" ref="D11:D12" si="5">IF(MONTH(E11)&gt;2,E11-C11+2,E11-C11+1)</f>
+        <v>4</v>
+      </c>
+      <c r="E11" s="26">
+        <v>44565</v>
+      </c>
+      <c r="F11" s="27">
+        <v>10</v>
+      </c>
+      <c r="G11" s="28">
         <f>Таблица1[[#This Row],[Дата начала1]]+Таблица1[[#This Row],[Продолжительность1, дней]]-1</f>
-        <v>44568</v>
-      </c>
-      <c r="H11" s="9">
+        <v>44574</v>
+      </c>
+      <c r="H11" s="29">
         <f>IF(AND(I11-$C11&gt;0,Таблица1[[#This Row],[Продолжительность1, дней]]&gt;0),I11-$C11-D11-(Таблица1[[#This Row],[Дата конца1]]-Таблица1[[#This Row],[Дата начала1]]),"")</f>
-        <v>51</v>
-      </c>
-      <c r="I11" s="6">
-        <v>44620</v>
-      </c>
-      <c r="J11" s="7">
+        <v>31</v>
+      </c>
+      <c r="I11" s="26">
+        <v>44606</v>
+      </c>
+      <c r="J11" s="27">
         <v>10</v>
       </c>
-      <c r="K11" s="8">
+      <c r="K11" s="28">
         <f>Таблица1[[#This Row],[Дата начала2]]+Таблица1[[#This Row],[Продолжительность2, дней]]-1</f>
-        <v>44629</v>
-      </c>
-      <c r="L11" s="9">
+        <v>44615</v>
+      </c>
+      <c r="L11" s="29">
         <f>IF(AND(M11-$C11&gt;0,Таблица1[[#This Row],[Продолжительность1, дней]]&gt;0,Таблица1[[#This Row],[Продолжительность2, дней]]&gt;0),M11-$C11-$D11-(Таблица1[[#This Row],[Дата конца1]]-Таблица1[[#This Row],[Дата начала1]])-$H11-(Таблица1[[#This Row],[Дата конца2]]-Таблица1[[#This Row],[Дата начала2]])-1,"")</f>
-        <v>61</v>
-      </c>
-      <c r="M11" s="6">
-        <v>44691</v>
-      </c>
-      <c r="N11" s="7">
-        <v>14</v>
-      </c>
-      <c r="O11" s="8">
+        <v>87</v>
+      </c>
+      <c r="M11" s="26">
+        <v>44703</v>
+      </c>
+      <c r="N11" s="27">
+        <v>4</v>
+      </c>
+      <c r="O11" s="28">
         <f>Таблица1[[#This Row],[Дата начала3]]+Таблица1[[#This Row],[Продолжительность3, дней]]-1</f>
-        <v>44704</v>
-      </c>
-      <c r="P11" s="9">
+        <v>44706</v>
+      </c>
+      <c r="P11" s="29">
         <f>IF(AND(Q11-$C11&gt;0,Таблица1[[#This Row],[Продолжительность1, дней]]&gt;0,Таблица1[[#This Row],[Продолжительность2, дней]]&gt;0,Таблица1[[#This Row],[Продолжительность3, дней]]&gt;0),Q11-$C11-$D11-(Таблица1[[#This Row],[Дата конца1]]-Таблица1[[#This Row],[Дата начала1]])-$H11-(Таблица1[[#This Row],[Дата конца2]]-Таблица1[[#This Row],[Дата начала2]])-L11-(Таблица1[[#This Row],[Дата конца3]]-Таблица1[[#This Row],[Дата начала3]])-2,"")</f>
-        <v>173</v>
-      </c>
-      <c r="Q11" s="6">
-        <v>44878</v>
-      </c>
-      <c r="R11" s="7">
-        <v>1</v>
-      </c>
-      <c r="S11" s="10">
-        <f t="shared" si="4"/>
-        <v>44878</v>
+        <v>159</v>
+      </c>
+      <c r="Q11" s="26">
+        <v>44866</v>
+      </c>
+      <c r="R11" s="27">
+        <v>4</v>
+      </c>
+      <c r="S11" s="30">
+        <f t="shared" ref="S11:S12" si="6">Q11+R11-1</f>
+        <v>44869</v>
       </c>
       <c r="T11" s="15">
         <v>28</v>
       </c>
       <c r="U11" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="U11:U12" si="7">F11+J11+N11+R11</f>
         <v>28</v>
       </c>
       <c r="V11" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="V11:V12" si="8">T11-U11</f>
         <v>0</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <conditionalFormatting sqref="E4:E11 I4:I11 M4:M11 Q4:Q11">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="lessThan">
+      <formula>$A$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E11 I11 M11 Q11">
+    <cfRule type="cellIs" dxfId="28" priority="1" operator="lessThan">
       <formula>$A$1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2645,97 +2773,97 @@
       <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="15.7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="23" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>44562</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>44563</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>44564</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>44565</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>44566</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>44567</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:1" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>44568</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:1" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>44569</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:1" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>44615</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:1" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>44627</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:1" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>44628</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:1" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>44683</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:1" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>44684</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:1" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>44690</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>44691</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>44725</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>44869</v>
       </c>
